--- a/biorefineries/TAL/analyses/full/parameter_distributions/scenarios_key.xlsx
+++ b/biorefineries/TAL/analyses/full/parameter_distributions/scenarios_key.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\Spring 2020\BioSTEAM\Bioindustrial-Park\biorefineries\TAL\analyses\full\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B763A3-8393-4DF3-B748-B191AA088C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829308C8-A46F-4F3C-AEE4-AF6A1460842F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Product</t>
   </si>
@@ -116,6 +116,21 @@
   </si>
   <si>
     <t>B + Improvements to biorefinery operating days (to 240 d/y) and production capacity (to 17,869 metric ton/y of TAL) by integrating 208,000 metric ton/y of sweet sorghum.</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A + Improvements to HMP dehydration conversion (to 96.9 mol%) and hydrogenation, dehydration, and ring-opening hydrolysis reaction times (all to 2 h)</t>
+  </si>
+  <si>
+    <t>B + Improvements to HMP dehydration conversion (to 96.9 mol%) and hydrogenation, dehydration, and ring-opening hydrolysis reaction times (all to 2 h)</t>
+  </si>
+  <si>
+    <t>B + Improvements to biorefinery operating days (to 240 d/y) and production capacity (to 15969 metric ton/y of potassium sorbate, equivalent to 11,920 metric ton/yof sorbic acid) by integrating 208,000 metric ton/y of sweet sorghum.</t>
   </si>
 </sst>
 </file>
@@ -158,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -218,11 +233,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -231,12 +277,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -246,7 +291,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,12 +591,10 @@
     <col min="1" max="1" width="40.77734375" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="3" max="3" width="58.109375" customWidth="1"/>
-    <col min="4" max="4" width="29" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="5"/>
-    <col min="6" max="6" width="14.44140625" style="5" customWidth="1"/>
-    <col min="7" max="9" width="8.88671875" style="5"/>
-    <col min="10" max="10" width="10.6640625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -568,7 +619,7 @@
       <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -580,7 +631,7 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -590,7 +641,7 @@
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -600,7 +651,7 @@
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
@@ -610,7 +661,7 @@
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -622,7 +673,7 @@
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -632,17 +683,17 @@
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
@@ -652,82 +703,64 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="5:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="5:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="5:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="5:10" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="5:10" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="5:10" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="5:10" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="5:10" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="5:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="5:10" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="5:10" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="5:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="5:10" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="5:10" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="5:10" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="5:10" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="33" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="45" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="46" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="J19" s="5"/>
+    </row>
+    <row r="25" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E25" s="6"/>
+    </row>
+    <row r="28" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="I28" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A6:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/biorefineries/TAL/analyses/full/parameter_distributions/scenarios_key.xlsx
+++ b/biorefineries/TAL/analyses/full/parameter_distributions/scenarios_key.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\Spring 2020\BioSTEAM\Bioindustrial-Park\biorefineries\TAL\analyses\full\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829308C8-A46F-4F3C-AEE4-AF6A1460842F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0A6B25-9014-4D43-9AE7-21518ADC1DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,18 +103,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>C + Base (sodium hydroxide) addition before heating during deparation (maintaining a pH of 11) and mitigating TAL ring-opening decarboxylation conversion (to 5 mol%).</t>
-  </si>
-  <si>
-    <t>C + Improvements to HMP dehydration conversion (to 96.9 mol%) and hydrogenation, dehydration, and ring-opening hydrolysis reaction times (all to 2 h)</t>
-  </si>
-  <si>
-    <t>D + Improvements to HMP dehydration conversion (to 96.9 mol%) and hydrogenation, dehydration, and ring-opening hydrolysis reaction times (all to 2 h)</t>
-  </si>
-  <si>
-    <t>A + Improvements to fermentation yield (to 68% theoretical) and titer (to 76 g/L).</t>
-  </si>
-  <si>
     <t>B + Improvements to biorefinery operating days (to 240 d/y) and production capacity (to 17,869 metric ton/y of TAL) by integrating 208,000 metric ton/y of sweet sorghum.</t>
   </si>
   <si>
@@ -124,13 +112,25 @@
     <t>H</t>
   </si>
   <si>
-    <t>A + Improvements to HMP dehydration conversion (to 96.9 mol%) and hydrogenation, dehydration, and ring-opening hydrolysis reaction times (all to 2 h)</t>
-  </si>
-  <si>
-    <t>B + Improvements to HMP dehydration conversion (to 96.9 mol%) and hydrogenation, dehydration, and ring-opening hydrolysis reaction times (all to 2 h)</t>
-  </si>
-  <si>
-    <t>B + Improvements to biorefinery operating days (to 240 d/y) and production capacity (to 15969 metric ton/y of potassium sorbate, equivalent to 11,920 metric ton/yof sorbic acid) by integrating 208,000 metric ton/y of sweet sorghum.</t>
+    <t>A + Improvements to fermentation yield (to 73% theoretical) and titer (to 65 g/L).</t>
+  </si>
+  <si>
+    <t>B + Improvements to biorefinery operating days (to 240 d/y) by integrating sweet sorghum processing while maintaining production capacity (at 15,944 metric ton/y).</t>
+  </si>
+  <si>
+    <t>C + Base (sodium hydroxide) addition before heating during deparation (maintaining a pH of 11) and mitigating TAL ring-opening decarboxylation conversion (to 4.8 mol%).</t>
+  </si>
+  <si>
+    <t>B + Improvements to HMP etherification &amp; hydrolysis (dehydration) conversion (to 96.9 mol%) and reaction times for etherification &amp; hydrolysis (dehydration; to 6.1 h) and ring-opening &amp; hydrolysis (to 6.1 h).</t>
+  </si>
+  <si>
+    <t>C + Improvements to HMP etherification &amp; hydrolysis (dehydration) conversion (to 96.9 mol%) and reaction times for etherification &amp; hydrolysis (dehydration; to 6.1 h) and ring-opening &amp; hydrolysis (to 6.1 h).</t>
+  </si>
+  <si>
+    <t>D + Improvements to HMP etherification &amp; hydrolysis (dehydration) conversion (to 96.9 mol%) and reaction times for etherification &amp; hydrolysis (dehydration; to 6.1 h) and ring-opening &amp; hydrolysis (to 6.1 h).</t>
+  </si>
+  <si>
+    <t>A + Improvements to HMP etherification &amp; hydrolysis (dehydration) conversion (to 96.9 mol%) and reaction times for etherification &amp; hydrolysis (dehydration; to 6.1 h) and ring-opening &amp; hydrolysis (to 6.1 h).</t>
   </si>
 </sst>
 </file>
@@ -583,7 +583,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,7 +646,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -688,7 +688,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -698,7 +698,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -708,7 +708,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -718,27 +718,27 @@
         <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D13" s="3"/>
     </row>
